--- a/work/01_03_05待合并API.xlsx
+++ b/work/01_03_05待合并API.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00601E98-C3E7-4C90-ACC0-66984C14AF9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBD5183-4028-4791-BA2B-90DE6A4CC27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="765" windowWidth="24390" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="1260" windowWidth="24390" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口统计" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="145">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,16 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UserController</t>
-  </si>
-  <si>
-    <t>控制器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlatManageController</t>
-  </si>
-  <si>
     <t>实现方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,10 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21新增或者修改单位用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>22删除单位用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6216,7 +6202,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PlatManageController</t>
+    <t>测试通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5旧接口 废弃_且测试过该接口有报错 2021-12-03</t>
+  </si>
+  <si>
+    <t>21系统管理-&gt;用户管理(新增或修改用户)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>且测试报错不存在的table</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6269,7 +6270,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6324,12 +6325,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -6358,7 +6353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -6386,7 +6381,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6484,7 +6478,7 @@
         <xdr:cNvPr id="2" name="文本框 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB59D2A5-AF90-4775-AAA9-A934C87928A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6817,22 +6811,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T49"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46" customWidth="1"/>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="2" max="2" width="50.25" customWidth="1"/>
     <col min="3" max="3" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="50.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6843,716 +6838,658 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="E2" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>48</v>
+      <c r="D7" s="1"/>
+      <c r="E7" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
+      <c r="D8" s="1"/>
+      <c r="E8" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>24</v>
+      <c r="D10" s="1"/>
+      <c r="E10" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>25</v>
+      <c r="D11" s="1"/>
+      <c r="E11" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>50</v>
+      <c r="D12" s="1"/>
+      <c r="E12" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="D13" s="1"/>
+      <c r="E13" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>27</v>
+      <c r="D14" s="1"/>
+      <c r="E14" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
+      <c r="D15" s="1"/>
+      <c r="E15" s="18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="18" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="8" t="s">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="18"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="1"/>
+      <c r="A21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="1"/>
+      <c r="A22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="1"/>
+      <c r="A23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>41</v>
+      <c r="A28" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="A29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="8" t="s">
+      <c r="A30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>69</v>
+      <c r="A32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>68</v>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="18"/>
+      <c r="F36"/>
+      <c r="G36"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C42" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="D42" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="49" spans="1:1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
-        <v>74</v>
+    </row>
+    <row r="48" spans="1:19" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -7567,8 +7504,8 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7583,13 +7520,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -7597,22 +7534,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="1"/>
       <c r="E2" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="11"/>
       <c r="B3" s="11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -7621,84 +7558,84 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="13" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -7707,10 +7644,10 @@
     </row>
     <row r="10" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -7719,114 +7656,114 @@
     </row>
     <row r="11" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E11" s="11"/>
       <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>118</v>
-      </c>
       <c r="F14" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
       <c r="E15" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
       <c r="E17" s="14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -7837,32 +7774,32 @@
     </row>
     <row r="19" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="D20" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>135</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -7902,7 +7839,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>

--- a/work/01_03_05待合并API.xlsx
+++ b/work/01_03_05待合并API.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caianhua\Documents\GitHub\hillcat.github.io\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBD5183-4028-4791-BA2B-90DE6A4CC27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD6FFD0-0C6B-4942-91E7-61A8C3F9FC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="1260" windowWidth="24390" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="接口统计" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="SQL" sheetId="3" r:id="rId3"/>
     <sheet name="会议备注" sheetId="7" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -6813,7 +6813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -7503,9 +7503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5A77E3-95CE-4F8E-A775-DE699AE22C03}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7981,7 +7981,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
